--- a/云计算班级.xlsx
+++ b/云计算班级.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="10871"/>
+    <workbookView windowWidth="22943" windowHeight="9924" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="名单" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
   <si>
     <t>班级</t>
   </si>
@@ -354,6 +354,21 @@
   </si>
   <si>
     <t>签到12</t>
+  </si>
+  <si>
+    <t>韩银泰</t>
+  </si>
+  <si>
+    <t>16信工2班</t>
+  </si>
+  <si>
+    <t>严宜达</t>
+  </si>
+  <si>
+    <t>王晓伟</t>
+  </si>
+  <si>
+    <t>林恒杰</t>
   </si>
   <si>
     <t>作业1</t>
@@ -391,10 +406,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="22">
@@ -419,13 +434,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -433,7 +441,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,6 +457,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,44 +502,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,6 +525,43 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -548,15 +571,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -589,43 +604,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,19 +658,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,13 +676,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,7 +706,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,73 +778,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,15 +859,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -870,9 +876,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -892,28 +909,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,6 +932,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -940,10 +955,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -952,7 +967,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -961,128 +976,128 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1114,6 +1129,24 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1440,7 +1473,7 @@
   <sheetPr/>
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
@@ -1449,7 +1482,7 @@
     <col min="1" max="1" width="11.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="18.8888888888889" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="26" style="11" customWidth="1"/>
+    <col min="4" max="4" width="26" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:4">
@@ -1462,7 +1495,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1476,11 +1509,11 @@
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" ht="15.15" spans="1:3">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1491,7 +1524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" ht="15.15" spans="1:3">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -1502,7 +1535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" ht="15.15" spans="1:3">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1513,7 +1546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" ht="15.15" spans="1:3">
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
@@ -1524,7 +1557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" ht="15.15" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1535,7 +1568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" ht="15.15" spans="1:3">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
@@ -1546,7 +1579,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" ht="15.15" spans="1:3">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1557,7 +1590,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" ht="15.15" spans="1:3">
       <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
@@ -1568,7 +1601,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" ht="15.15" spans="1:3">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -1579,7 +1612,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" ht="15.15" spans="1:3">
       <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
@@ -1590,7 +1623,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" ht="15.15" spans="1:3">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -1601,7 +1634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" ht="15.15" spans="1:3">
       <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
@@ -1612,7 +1645,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" ht="15.15" spans="1:3">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1623,7 +1656,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" ht="15.15" spans="1:3">
       <c r="A16" s="8" t="s">
         <v>13</v>
       </c>
@@ -1634,7 +1667,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" ht="15.15" spans="1:3">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
@@ -1645,7 +1678,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" ht="15.15" spans="1:3">
       <c r="A18" s="8" t="s">
         <v>13</v>
       </c>
@@ -1656,7 +1689,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" ht="15.15" spans="1:3">
       <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
@@ -1667,7 +1700,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" ht="15.15" spans="1:3">
       <c r="A20" s="8" t="s">
         <v>27</v>
       </c>
@@ -1678,7 +1711,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" ht="15.15" spans="1:3">
       <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
@@ -1689,7 +1722,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" ht="15.15" spans="1:3">
       <c r="A22" s="8" t="s">
         <v>27</v>
       </c>
@@ -1700,7 +1733,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" ht="15.15" spans="1:3">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
@@ -1711,7 +1744,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" ht="15.15" spans="1:3">
       <c r="A24" s="8" t="s">
         <v>27</v>
       </c>
@@ -1722,7 +1755,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" ht="15.15" spans="1:3">
       <c r="A25" s="5" t="s">
         <v>27</v>
       </c>
@@ -1733,7 +1766,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" ht="15.15" spans="1:3">
       <c r="A26" s="8" t="s">
         <v>27</v>
       </c>
@@ -1744,7 +1777,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" ht="15.15" spans="1:3">
       <c r="A27" s="5" t="s">
         <v>27</v>
       </c>
@@ -1755,7 +1788,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" ht="15.15" spans="1:3">
       <c r="A28" s="8" t="s">
         <v>27</v>
       </c>
@@ -1766,7 +1799,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" ht="15.15" spans="1:3">
       <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
@@ -1777,7 +1810,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" ht="15.15" spans="1:3">
       <c r="A30" s="8" t="s">
         <v>27</v>
       </c>
@@ -1788,7 +1821,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" ht="15.15" spans="1:3">
       <c r="A31" s="5" t="s">
         <v>27</v>
       </c>
@@ -1799,7 +1832,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" ht="15.15" spans="1:3">
       <c r="A32" s="8" t="s">
         <v>27</v>
       </c>
@@ -1810,7 +1843,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" ht="15.15" spans="1:3">
       <c r="A33" s="5" t="s">
         <v>27</v>
       </c>
@@ -1821,7 +1854,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" ht="15.15" spans="1:3">
       <c r="A34" s="8" t="s">
         <v>27</v>
       </c>
@@ -1832,7 +1865,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" ht="15.15" spans="1:3">
       <c r="A35" s="5" t="s">
         <v>27</v>
       </c>
@@ -1853,11 +1886,11 @@
       <c r="C36" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" ht="15.15" spans="1:3">
       <c r="A37" s="5" t="s">
         <v>44</v>
       </c>
@@ -1868,7 +1901,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" ht="15.15" spans="1:3">
       <c r="A38" s="8" t="s">
         <v>44</v>
       </c>
@@ -1879,7 +1912,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" ht="15.15" spans="1:3">
       <c r="A39" s="5" t="s">
         <v>44</v>
       </c>
@@ -1890,7 +1923,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" ht="15.15" spans="1:3">
       <c r="A40" s="8" t="s">
         <v>44</v>
       </c>
@@ -1901,7 +1934,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" ht="15.15" spans="1:3">
       <c r="A41" s="5" t="s">
         <v>44</v>
       </c>
@@ -1912,7 +1945,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" ht="15.15" spans="1:3">
       <c r="A42" s="8" t="s">
         <v>44</v>
       </c>
@@ -1923,7 +1956,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" ht="15.15" spans="1:3">
       <c r="A43" s="5" t="s">
         <v>44</v>
       </c>
@@ -1934,7 +1967,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" ht="15.15" spans="1:3">
       <c r="A44" s="8" t="s">
         <v>44</v>
       </c>
@@ -1945,7 +1978,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" ht="15.15" spans="1:3">
       <c r="A45" s="5" t="s">
         <v>44</v>
       </c>
@@ -1956,7 +1989,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" ht="15.15" spans="1:3">
       <c r="A46" s="8" t="s">
         <v>44</v>
       </c>
@@ -1967,7 +2000,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" ht="15.15" spans="1:3">
       <c r="A47" s="5" t="s">
         <v>44</v>
       </c>
@@ -1978,7 +2011,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" ht="15.15" spans="1:3">
       <c r="A48" s="8" t="s">
         <v>44</v>
       </c>
@@ -1989,7 +2022,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" ht="15.15" spans="1:3">
       <c r="A49" s="5" t="s">
         <v>44</v>
       </c>
@@ -2000,7 +2033,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" ht="15.15" spans="1:3">
       <c r="A50" s="8" t="s">
         <v>44</v>
       </c>
@@ -2011,7 +2044,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" ht="15.15" spans="1:3">
       <c r="A51" s="5" t="s">
         <v>44</v>
       </c>
@@ -2022,7 +2055,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" ht="15.15" spans="1:3">
       <c r="A52" s="8" t="s">
         <v>44</v>
       </c>
@@ -2033,7 +2066,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" ht="15.15" spans="1:3">
       <c r="A53" s="5" t="s">
         <v>44</v>
       </c>
@@ -2044,7 +2077,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" ht="15.15" spans="1:3">
       <c r="A54" s="8" t="s">
         <v>44</v>
       </c>
@@ -2055,7 +2088,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" ht="15.15" spans="1:3">
       <c r="A55" s="5" t="s">
         <v>44</v>
       </c>
@@ -2066,7 +2099,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" ht="15.15" spans="1:3">
       <c r="A56" s="8" t="s">
         <v>44</v>
       </c>
@@ -2077,7 +2110,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" ht="15.15" spans="1:3">
       <c r="A57" s="5" t="s">
         <v>44</v>
       </c>
@@ -2088,7 +2121,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" ht="15.15" spans="1:3">
       <c r="A58" s="8" t="s">
         <v>44</v>
       </c>
@@ -2099,7 +2132,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" ht="15.15" spans="1:3">
       <c r="A59" s="5" t="s">
         <v>44</v>
       </c>
@@ -2110,7 +2143,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" ht="15.15" spans="1:3">
       <c r="A60" s="8" t="s">
         <v>44</v>
       </c>
@@ -2121,7 +2154,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" ht="15.15" spans="1:3">
       <c r="A61" s="5" t="s">
         <v>44</v>
       </c>
@@ -2132,7 +2165,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" ht="15.15" spans="1:3">
       <c r="A62" s="8" t="s">
         <v>44</v>
       </c>
@@ -2143,7 +2176,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" ht="15.15" spans="1:3">
       <c r="A63" s="5" t="s">
         <v>73</v>
       </c>
@@ -2154,7 +2187,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" ht="15.15" spans="1:3">
       <c r="A64" s="8" t="s">
         <v>73</v>
       </c>
@@ -2165,7 +2198,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" ht="15.15" spans="1:3">
       <c r="A65" s="5" t="s">
         <v>73</v>
       </c>
@@ -2176,7 +2209,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" ht="15.15" spans="1:3">
       <c r="A66" s="8" t="s">
         <v>73</v>
       </c>
@@ -2187,7 +2220,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" ht="15.15" spans="1:3">
       <c r="A67" s="5" t="s">
         <v>73</v>
       </c>
@@ -2198,7 +2231,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" ht="15.15" spans="1:3">
       <c r="A68" s="8" t="s">
         <v>73</v>
       </c>
@@ -2209,7 +2242,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" ht="15.15" spans="1:3">
       <c r="A69" s="5" t="s">
         <v>73</v>
       </c>
@@ -2220,7 +2253,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" ht="15.15" spans="1:3">
       <c r="A70" s="8" t="s">
         <v>73</v>
       </c>
@@ -2231,7 +2264,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" ht="15.15" spans="1:3">
       <c r="A71" s="5" t="s">
         <v>73</v>
       </c>
@@ -2242,7 +2275,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" ht="15.15" spans="1:3">
       <c r="A72" s="8" t="s">
         <v>73</v>
       </c>
@@ -2253,7 +2286,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" ht="15.15" spans="1:3">
       <c r="A73" s="5" t="s">
         <v>73</v>
       </c>
@@ -2264,7 +2297,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" ht="15.15" spans="1:3">
       <c r="A74" s="8" t="s">
         <v>73</v>
       </c>
@@ -2275,7 +2308,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" ht="15.15" spans="1:3">
       <c r="A75" s="5" t="s">
         <v>73</v>
       </c>
@@ -2286,7 +2319,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" ht="15.15" spans="1:3">
       <c r="A76" s="8" t="s">
         <v>73</v>
       </c>
@@ -2297,7 +2330,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" ht="15.15" spans="1:3">
       <c r="A77" s="5" t="s">
         <v>73</v>
       </c>
@@ -2308,7 +2341,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" ht="15.15" spans="1:3">
       <c r="A78" s="8" t="s">
         <v>73</v>
       </c>
@@ -2319,7 +2352,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" ht="15.15" spans="1:3">
       <c r="A79" s="5" t="s">
         <v>73</v>
       </c>
@@ -2330,7 +2363,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" ht="15.15" spans="1:3">
       <c r="A80" s="8" t="s">
         <v>73</v>
       </c>
@@ -2341,7 +2374,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" ht="15.15" spans="1:3">
       <c r="A81" s="5" t="s">
         <v>73</v>
       </c>
@@ -2352,7 +2385,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" ht="15.15" spans="1:3">
       <c r="A82" s="8" t="s">
         <v>73</v>
       </c>
@@ -2363,7 +2396,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" ht="15.15" spans="1:3">
       <c r="A83" s="5" t="s">
         <v>73</v>
       </c>
@@ -2374,7 +2407,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" ht="15.15" spans="1:3">
       <c r="A84" s="8" t="s">
         <v>73</v>
       </c>
@@ -2385,7 +2418,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" ht="15.15" spans="1:3">
       <c r="A85" s="5" t="s">
         <v>73</v>
       </c>
@@ -2396,7 +2429,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" ht="15.15" spans="1:3">
       <c r="A86" s="8" t="s">
         <v>73</v>
       </c>
@@ -2407,7 +2440,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" ht="15.15" spans="1:3">
       <c r="A87" s="5" t="s">
         <v>73</v>
       </c>
@@ -2418,7 +2451,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" ht="15.15" spans="1:3">
       <c r="A88" s="8" t="s">
         <v>73</v>
       </c>
@@ -2429,7 +2462,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" ht="15.15" spans="1:3">
       <c r="A89" s="5" t="s">
         <v>73</v>
       </c>
@@ -2539,10 +2572,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O89"/>
+  <dimension ref="A1:O93"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2600,7 +2633,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" ht="15.15" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2686,71 +2719,71 @@
       </c>
     </row>
     <row r="7" ht="15.15" spans="1:5">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="6">
-        <v>122512015084</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>14</v>
+      <c r="A7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="9">
+        <v>122712016022</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" ht="15.15" spans="1:5">
-      <c r="A8" s="8" t="s">
-        <v>13</v>
+      <c r="A8" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="B8" s="9">
-        <v>122512017005</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>15</v>
+        <v>122712016041</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" ht="15.15" spans="1:5">
-      <c r="A9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="6">
-        <v>122512017007</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>16</v>
+      <c r="A9" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="9">
+        <v>122712016042</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="15.15" spans="1:5">
-      <c r="A10" s="8" t="s">
-        <v>13</v>
+      <c r="A10" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="B10" s="9">
-        <v>122512017008</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>17</v>
+        <v>122712016047</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>116</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" ht="15.15" spans="1:5">
@@ -2758,10 +2791,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="6">
-        <v>122512017010</v>
+        <v>122512015084</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2775,13 +2808,13 @@
         <v>13</v>
       </c>
       <c r="B12" s="9">
-        <v>122512017011</v>
+        <v>122512017005</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2792,10 +2825,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="6">
-        <v>122512017013</v>
+        <v>122512017007</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2809,10 +2842,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="9">
-        <v>122512017016</v>
+        <v>122512017008</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2826,10 +2859,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="6">
-        <v>122512017019</v>
+        <v>122512017010</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2843,10 +2876,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="9">
-        <v>122512017020</v>
+        <v>122512017011</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2860,10 +2893,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="6">
-        <v>122512017021</v>
+        <v>122512017013</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2877,10 +2910,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="9">
-        <v>122512017024</v>
+        <v>122512017016</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2894,10 +2927,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="6">
-        <v>122522017046</v>
+        <v>122512017019</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2908,13 +2941,13 @@
     </row>
     <row r="20" ht="15.15" spans="1:5">
       <c r="A20" s="8" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B20" s="9">
-        <v>122512017030</v>
+        <v>122512017020</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2925,13 +2958,13 @@
     </row>
     <row r="21" ht="15.15" spans="1:5">
       <c r="A21" s="5" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B21" s="6">
-        <v>122512017031</v>
+        <v>122512017021</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2942,16 +2975,16 @@
     </row>
     <row r="22" ht="15.15" spans="1:5">
       <c r="A22" s="8" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B22" s="9">
-        <v>122512017032</v>
+        <v>122512017024</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2959,13 +2992,13 @@
     </row>
     <row r="23" ht="15.15" spans="1:5">
       <c r="A23" s="5" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B23" s="6">
-        <v>122512017041</v>
+        <v>122522017046</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2979,10 +3012,10 @@
         <v>27</v>
       </c>
       <c r="B24" s="9">
-        <v>122512017043</v>
+        <v>122512017030</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2996,10 +3029,10 @@
         <v>27</v>
       </c>
       <c r="B25" s="6">
-        <v>122512017044</v>
+        <v>122512017031</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -3013,13 +3046,13 @@
         <v>27</v>
       </c>
       <c r="B26" s="9">
-        <v>122512017045</v>
+        <v>122512017032</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -3030,16 +3063,16 @@
         <v>27</v>
       </c>
       <c r="B27" s="6">
-        <v>122512017046</v>
+        <v>122512017041</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" ht="15.15" spans="1:5">
@@ -3047,10 +3080,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="9">
-        <v>122512017047</v>
+        <v>122512017043</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -3064,16 +3097,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="6">
-        <v>122512017049</v>
+        <v>122512017044</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" ht="15.15" spans="1:5">
@@ -3081,10 +3114,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="9">
-        <v>122512017051</v>
+        <v>122512017045</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -3098,16 +3131,16 @@
         <v>27</v>
       </c>
       <c r="B31" s="6">
-        <v>122512017052</v>
+        <v>122512017046</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" ht="15.15" spans="1:5">
@@ -3115,10 +3148,10 @@
         <v>27</v>
       </c>
       <c r="B32" s="9">
-        <v>122512017053</v>
+        <v>122512017047</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -3132,16 +3165,16 @@
         <v>27</v>
       </c>
       <c r="B33" s="6">
-        <v>122512017054</v>
+        <v>122512017049</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" ht="15.15" spans="1:5">
@@ -3149,10 +3182,10 @@
         <v>27</v>
       </c>
       <c r="B34" s="9">
-        <v>122552017075</v>
+        <v>122512017051</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -3166,10 +3199,10 @@
         <v>27</v>
       </c>
       <c r="B35" s="6">
-        <v>122582017019</v>
+        <v>122512017052</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -3178,32 +3211,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" ht="15.15" spans="1:5">
       <c r="A36" s="8" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B36" s="9">
-        <v>122622017001</v>
+        <v>122512017053</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" ht="15.15" spans="1:5">
       <c r="A37" s="5" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B37" s="6">
-        <v>122622017002</v>
+        <v>122512017054</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -3214,30 +3247,30 @@
     </row>
     <row r="38" ht="15.15" spans="1:5">
       <c r="A38" s="8" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B38" s="9">
-        <v>122622017003</v>
+        <v>122552017075</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" ht="15.15" spans="1:5">
       <c r="A39" s="5" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B39" s="6">
-        <v>122622017004</v>
+        <v>122582017019</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -3251,16 +3284,16 @@
         <v>44</v>
       </c>
       <c r="B40" s="9">
-        <v>122622017005</v>
+        <v>122622017001</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" ht="15.15" spans="1:5">
@@ -3268,10 +3301,10 @@
         <v>44</v>
       </c>
       <c r="B41" s="6">
-        <v>122622017006</v>
+        <v>122622017002</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -3285,13 +3318,13 @@
         <v>44</v>
       </c>
       <c r="B42" s="9">
-        <v>122622017007</v>
+        <v>122622017003</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3302,10 +3335,10 @@
         <v>44</v>
       </c>
       <c r="B43" s="6">
-        <v>122622017008</v>
+        <v>122622017004</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -3319,10 +3352,10 @@
         <v>44</v>
       </c>
       <c r="B44" s="9">
-        <v>122622017009</v>
+        <v>122622017005</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -3336,10 +3369,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="6">
-        <v>122622017010</v>
+        <v>122622017006</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -3353,16 +3386,16 @@
         <v>44</v>
       </c>
       <c r="B46" s="9">
-        <v>122622017011</v>
+        <v>122622017007</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" ht="15.15" spans="1:5">
@@ -3370,13 +3403,13 @@
         <v>44</v>
       </c>
       <c r="B47" s="6">
-        <v>122622017012</v>
+        <v>122622017008</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3387,10 +3420,10 @@
         <v>44</v>
       </c>
       <c r="B48" s="9">
-        <v>122622017013</v>
+        <v>122622017009</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -3404,10 +3437,10 @@
         <v>44</v>
       </c>
       <c r="B49" s="6">
-        <v>122622017014</v>
+        <v>122622017010</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -3421,10 +3454,10 @@
         <v>44</v>
       </c>
       <c r="B50" s="9">
-        <v>122622017015</v>
+        <v>122622017011</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -3438,13 +3471,13 @@
         <v>44</v>
       </c>
       <c r="B51" s="6">
-        <v>122622017016</v>
+        <v>122622017012</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -3455,10 +3488,10 @@
         <v>44</v>
       </c>
       <c r="B52" s="9">
-        <v>122622017017</v>
+        <v>122622017013</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -3472,10 +3505,10 @@
         <v>44</v>
       </c>
       <c r="B53" s="6">
-        <v>122622017018</v>
+        <v>122622017014</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -3489,10 +3522,10 @@
         <v>44</v>
       </c>
       <c r="B54" s="9">
-        <v>122622017019</v>
+        <v>122622017015</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -3506,10 +3539,10 @@
         <v>44</v>
       </c>
       <c r="B55" s="6">
-        <v>122622017020</v>
+        <v>122622017016</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -3523,10 +3556,10 @@
         <v>44</v>
       </c>
       <c r="B56" s="9">
-        <v>122622017021</v>
+        <v>122622017017</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -3540,10 +3573,10 @@
         <v>44</v>
       </c>
       <c r="B57" s="6">
-        <v>122622017022</v>
+        <v>122622017018</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -3557,10 +3590,10 @@
         <v>44</v>
       </c>
       <c r="B58" s="9">
-        <v>122622017023</v>
+        <v>122622017019</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -3574,10 +3607,10 @@
         <v>44</v>
       </c>
       <c r="B59" s="6">
-        <v>122622017024</v>
+        <v>122622017020</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -3591,10 +3624,10 @@
         <v>44</v>
       </c>
       <c r="B60" s="9">
-        <v>122622017025</v>
+        <v>122622017021</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -3608,10 +3641,10 @@
         <v>44</v>
       </c>
       <c r="B61" s="6">
-        <v>122622017026</v>
+        <v>122622017022</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -3625,10 +3658,10 @@
         <v>44</v>
       </c>
       <c r="B62" s="9">
-        <v>122622017027</v>
+        <v>122622017023</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -3639,13 +3672,13 @@
     </row>
     <row r="63" ht="15.15" spans="1:5">
       <c r="A63" s="5" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="B63" s="6">
-        <v>122622017028</v>
+        <v>122622017024</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -3656,13 +3689,13 @@
     </row>
     <row r="64" ht="15.15" spans="1:5">
       <c r="A64" s="8" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="B64" s="9">
-        <v>122622017029</v>
+        <v>122622017025</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -3673,13 +3706,13 @@
     </row>
     <row r="65" ht="15.15" spans="1:5">
       <c r="A65" s="5" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="B65" s="6">
-        <v>122622017030</v>
+        <v>122622017026</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -3690,13 +3723,13 @@
     </row>
     <row r="66" ht="15.15" spans="1:5">
       <c r="A66" s="8" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="B66" s="9">
-        <v>122622017031</v>
+        <v>122622017027</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -3710,10 +3743,10 @@
         <v>73</v>
       </c>
       <c r="B67" s="6">
-        <v>122622017032</v>
+        <v>122622017028</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -3727,10 +3760,10 @@
         <v>73</v>
       </c>
       <c r="B68" s="9">
-        <v>122622017033</v>
+        <v>122622017029</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -3744,10 +3777,10 @@
         <v>73</v>
       </c>
       <c r="B69" s="6">
-        <v>122622017034</v>
+        <v>122622017030</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -3761,10 +3794,10 @@
         <v>73</v>
       </c>
       <c r="B70" s="9">
-        <v>122622017035</v>
+        <v>122622017031</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -3778,10 +3811,10 @@
         <v>73</v>
       </c>
       <c r="B71" s="6">
-        <v>122622017036</v>
+        <v>122622017032</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -3795,10 +3828,10 @@
         <v>73</v>
       </c>
       <c r="B72" s="9">
-        <v>122622017037</v>
+        <v>122622017033</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -3812,10 +3845,10 @@
         <v>73</v>
       </c>
       <c r="B73" s="6">
-        <v>122622017039</v>
+        <v>122622017034</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -3829,10 +3862,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="9">
-        <v>122622017040</v>
+        <v>122622017035</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -3846,10 +3879,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="6">
-        <v>122622017041</v>
+        <v>122622017036</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -3863,10 +3896,10 @@
         <v>73</v>
       </c>
       <c r="B76" s="9">
-        <v>122622017042</v>
+        <v>122622017037</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -3880,10 +3913,10 @@
         <v>73</v>
       </c>
       <c r="B77" s="6">
-        <v>122622017043</v>
+        <v>122622017039</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -3897,10 +3930,10 @@
         <v>73</v>
       </c>
       <c r="B78" s="9">
-        <v>122622017044</v>
+        <v>122622017040</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -3914,10 +3947,10 @@
         <v>73</v>
       </c>
       <c r="B79" s="6">
-        <v>122622017046</v>
+        <v>122622017041</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -3931,10 +3964,10 @@
         <v>73</v>
       </c>
       <c r="B80" s="9">
-        <v>122622017047</v>
+        <v>122622017042</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -3948,10 +3981,10 @@
         <v>73</v>
       </c>
       <c r="B81" s="6">
-        <v>122622017048</v>
+        <v>122622017043</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -3965,10 +3998,10 @@
         <v>73</v>
       </c>
       <c r="B82" s="9">
-        <v>122622017049</v>
+        <v>122622017044</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -3982,10 +4015,10 @@
         <v>73</v>
       </c>
       <c r="B83" s="6">
-        <v>122622017050</v>
+        <v>122622017046</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -3999,10 +4032,10 @@
         <v>73</v>
       </c>
       <c r="B84" s="9">
-        <v>122622017051</v>
+        <v>122622017047</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -4016,10 +4049,10 @@
         <v>73</v>
       </c>
       <c r="B85" s="6">
-        <v>122622017052</v>
+        <v>122622017048</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -4033,10 +4066,10 @@
         <v>73</v>
       </c>
       <c r="B86" s="9">
-        <v>122622017053</v>
+        <v>122622017049</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -4050,10 +4083,10 @@
         <v>73</v>
       </c>
       <c r="B87" s="6">
-        <v>122622017054</v>
+        <v>122622017050</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -4067,10 +4100,10 @@
         <v>73</v>
       </c>
       <c r="B88" s="9">
-        <v>122642017008</v>
+        <v>122622017051</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -4084,15 +4117,83 @@
         <v>73</v>
       </c>
       <c r="B89" s="6">
+        <v>122622017052</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" ht="15.15" spans="1:5">
+      <c r="A90" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B90" s="9">
+        <v>122622017053</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" ht="15.15" spans="1:5">
+      <c r="A91" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B91" s="6">
+        <v>122622017054</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" ht="15.15" spans="1:5">
+      <c r="A92" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B92" s="9">
+        <v>122642017008</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" ht="15.15" spans="1:5">
+      <c r="A93" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B93" s="6">
         <v>122722015084</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C93" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-      <c r="E89">
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
         <v>0</v>
       </c>
     </row>
@@ -4103,89 +4204,93 @@
     <hyperlink ref="C4" r:id="rId1" display="包俐俐"/>
     <hyperlink ref="C5" r:id="rId1" display="张柳娟"/>
     <hyperlink ref="C6" r:id="rId1" display="张豪"/>
-    <hyperlink ref="C7" r:id="rId1" display="谢声威"/>
-    <hyperlink ref="C8" r:id="rId1" display="罗灿佳"/>
-    <hyperlink ref="C9" r:id="rId1" display="冯汝芳"/>
-    <hyperlink ref="C10" r:id="rId1" display="卢丽彬"/>
-    <hyperlink ref="C11" r:id="rId1" display="王佳乐"/>
-    <hyperlink ref="C12" r:id="rId1" display="张世铭"/>
-    <hyperlink ref="C13" r:id="rId1" display="廖经平"/>
-    <hyperlink ref="C14" r:id="rId1" display="张景新"/>
-    <hyperlink ref="C15" r:id="rId1" display="苏锦涛"/>
-    <hyperlink ref="C16" r:id="rId1" display="王日程"/>
-    <hyperlink ref="C17" r:id="rId1" display="周雨"/>
-    <hyperlink ref="C18" r:id="rId1" display="万俊超"/>
-    <hyperlink ref="C19" r:id="rId1" display="吴鑫"/>
-    <hyperlink ref="C20" r:id="rId1" display="王强"/>
-    <hyperlink ref="C21" r:id="rId1" display="王艺辉"/>
-    <hyperlink ref="C22" r:id="rId1" display="林志超"/>
-    <hyperlink ref="C23" r:id="rId1" display="赖志文"/>
-    <hyperlink ref="C24" r:id="rId1" display="王明荣"/>
-    <hyperlink ref="C25" r:id="rId1" display="叶子晗"/>
-    <hyperlink ref="C26" r:id="rId1" display="衷海全"/>
-    <hyperlink ref="C27" r:id="rId1" display="祝嘉豪"/>
-    <hyperlink ref="C28" r:id="rId1" display="黄泽锋"/>
-    <hyperlink ref="C29" r:id="rId1" display="李招扬"/>
-    <hyperlink ref="C30" r:id="rId1" display="陈隆"/>
-    <hyperlink ref="C31" r:id="rId1" display="蔡鸿钊"/>
-    <hyperlink ref="C32" r:id="rId1" display="许鸿志"/>
-    <hyperlink ref="C33" r:id="rId1" display="罗旋"/>
-    <hyperlink ref="C34" r:id="rId1" display="陈伟"/>
-    <hyperlink ref="C35" r:id="rId1" display="李海明"/>
-    <hyperlink ref="C36" r:id="rId1" display="刘望"/>
-    <hyperlink ref="C37" r:id="rId1" display="郭灿"/>
-    <hyperlink ref="C38" r:id="rId1" display="刘彬锋"/>
-    <hyperlink ref="C39" r:id="rId1" display="苏榕钦"/>
-    <hyperlink ref="C40" r:id="rId1" display="邵方舟"/>
-    <hyperlink ref="C41" r:id="rId1" display="楚嘉豪"/>
-    <hyperlink ref="C42" r:id="rId1" display="赵友健"/>
-    <hyperlink ref="C43" r:id="rId1" display="梁国华"/>
-    <hyperlink ref="C44" r:id="rId1" display="吴晓霞"/>
-    <hyperlink ref="C45" r:id="rId1" display="林晶晶"/>
-    <hyperlink ref="C46" r:id="rId1" display="覃声壮"/>
-    <hyperlink ref="C47" r:id="rId1" display="黄银波"/>
-    <hyperlink ref="C48" r:id="rId1" display="雷增辉"/>
-    <hyperlink ref="C49" r:id="rId1" display="杨隆锋"/>
-    <hyperlink ref="C50" r:id="rId1" display="黄泽伟"/>
-    <hyperlink ref="C51" r:id="rId1" display="黄伟剑"/>
-    <hyperlink ref="C52" r:id="rId1" display="周锋"/>
-    <hyperlink ref="C53" r:id="rId1" display="江昱"/>
-    <hyperlink ref="C54" r:id="rId1" display="甘粉宇"/>
-    <hyperlink ref="C55" r:id="rId1" display="宋雅婷"/>
-    <hyperlink ref="C56" r:id="rId1" display="邹俊杰"/>
-    <hyperlink ref="C57" r:id="rId1" display="蔡煜翔"/>
-    <hyperlink ref="C58" r:id="rId1" display="梁钦源"/>
-    <hyperlink ref="C59" r:id="rId1" display="何志浩"/>
-    <hyperlink ref="C60" r:id="rId1" display="郑志威"/>
-    <hyperlink ref="C61" r:id="rId1" display="邱肖峰"/>
-    <hyperlink ref="C62" r:id="rId1" display="郭峰"/>
-    <hyperlink ref="C63" r:id="rId1" display="余明鹏"/>
-    <hyperlink ref="C64" r:id="rId1" display="白文婧"/>
-    <hyperlink ref="C65" r:id="rId1" display="梁雪英"/>
-    <hyperlink ref="C66" r:id="rId1" display="柯杰"/>
-    <hyperlink ref="C67" r:id="rId1" display="蔡家超"/>
-    <hyperlink ref="C68" r:id="rId1" display="黄艺滕"/>
-    <hyperlink ref="C69" r:id="rId1" display="林博明"/>
-    <hyperlink ref="C70" r:id="rId1" display="陈光辉"/>
-    <hyperlink ref="C71" r:id="rId1" display="颜怡滨"/>
-    <hyperlink ref="C72" r:id="rId1" display="陈进昂"/>
-    <hyperlink ref="C73" r:id="rId1" display="贺节霞"/>
-    <hyperlink ref="C74" r:id="rId1" display="朱昱橦"/>
-    <hyperlink ref="C75" r:id="rId1" display="陈伟"/>
-    <hyperlink ref="C76" r:id="rId1" display="江宇涵"/>
-    <hyperlink ref="C77" r:id="rId1" display="杨武添"/>
-    <hyperlink ref="C78" r:id="rId1" display="廖鸿儒"/>
-    <hyperlink ref="C79" r:id="rId1" display="张胜黄"/>
-    <hyperlink ref="C80" r:id="rId1" display="江振民"/>
-    <hyperlink ref="C81" r:id="rId1" display="赖鑫伟"/>
-    <hyperlink ref="C82" r:id="rId1" display="吴婷婷"/>
-    <hyperlink ref="C83" r:id="rId1" display="林芳"/>
-    <hyperlink ref="C84" r:id="rId1" display="林心城"/>
-    <hyperlink ref="C85" r:id="rId1" display="饶煊华"/>
-    <hyperlink ref="C86" r:id="rId1" display="池万添"/>
-    <hyperlink ref="C87" r:id="rId1" display="林铮强"/>
-    <hyperlink ref="C88" r:id="rId1" display="陈丰艺"/>
-    <hyperlink ref="C89" r:id="rId1" display="许一坚"/>
+    <hyperlink ref="C11" r:id="rId1" display="谢声威"/>
+    <hyperlink ref="C12" r:id="rId1" display="罗灿佳"/>
+    <hyperlink ref="C13" r:id="rId1" display="冯汝芳"/>
+    <hyperlink ref="C14" r:id="rId1" display="卢丽彬"/>
+    <hyperlink ref="C15" r:id="rId1" display="王佳乐"/>
+    <hyperlink ref="C16" r:id="rId1" display="张世铭"/>
+    <hyperlink ref="C17" r:id="rId1" display="廖经平"/>
+    <hyperlink ref="C18" r:id="rId1" display="张景新"/>
+    <hyperlink ref="C19" r:id="rId1" display="苏锦涛"/>
+    <hyperlink ref="C20" r:id="rId1" display="王日程"/>
+    <hyperlink ref="C21" r:id="rId1" display="周雨"/>
+    <hyperlink ref="C22" r:id="rId1" display="万俊超"/>
+    <hyperlink ref="C23" r:id="rId1" display="吴鑫"/>
+    <hyperlink ref="C24" r:id="rId1" display="王强"/>
+    <hyperlink ref="C25" r:id="rId1" display="王艺辉"/>
+    <hyperlink ref="C26" r:id="rId1" display="林志超"/>
+    <hyperlink ref="C27" r:id="rId1" display="赖志文"/>
+    <hyperlink ref="C28" r:id="rId1" display="王明荣"/>
+    <hyperlink ref="C29" r:id="rId1" display="叶子晗"/>
+    <hyperlink ref="C30" r:id="rId1" display="衷海全"/>
+    <hyperlink ref="C31" r:id="rId1" display="祝嘉豪"/>
+    <hyperlink ref="C32" r:id="rId1" display="黄泽锋"/>
+    <hyperlink ref="C33" r:id="rId1" display="李招扬"/>
+    <hyperlink ref="C34" r:id="rId1" display="陈隆"/>
+    <hyperlink ref="C35" r:id="rId1" display="蔡鸿钊"/>
+    <hyperlink ref="C36" r:id="rId1" display="许鸿志"/>
+    <hyperlink ref="C37" r:id="rId1" display="罗旋"/>
+    <hyperlink ref="C38" r:id="rId1" display="陈伟"/>
+    <hyperlink ref="C39" r:id="rId1" display="李海明"/>
+    <hyperlink ref="C40" r:id="rId1" display="刘望"/>
+    <hyperlink ref="C41" r:id="rId1" display="郭灿"/>
+    <hyperlink ref="C42" r:id="rId1" display="刘彬锋"/>
+    <hyperlink ref="C43" r:id="rId1" display="苏榕钦"/>
+    <hyperlink ref="C44" r:id="rId1" display="邵方舟"/>
+    <hyperlink ref="C45" r:id="rId1" display="楚嘉豪"/>
+    <hyperlink ref="C46" r:id="rId1" display="赵友健"/>
+    <hyperlink ref="C47" r:id="rId1" display="梁国华"/>
+    <hyperlink ref="C48" r:id="rId1" display="吴晓霞"/>
+    <hyperlink ref="C49" r:id="rId1" display="林晶晶"/>
+    <hyperlink ref="C50" r:id="rId1" display="覃声壮"/>
+    <hyperlink ref="C51" r:id="rId1" display="黄银波"/>
+    <hyperlink ref="C52" r:id="rId1" display="雷增辉"/>
+    <hyperlink ref="C53" r:id="rId1" display="杨隆锋"/>
+    <hyperlink ref="C54" r:id="rId1" display="黄泽伟"/>
+    <hyperlink ref="C55" r:id="rId1" display="黄伟剑"/>
+    <hyperlink ref="C56" r:id="rId1" display="周锋"/>
+    <hyperlink ref="C57" r:id="rId1" display="江昱"/>
+    <hyperlink ref="C58" r:id="rId1" display="甘粉宇"/>
+    <hyperlink ref="C59" r:id="rId1" display="宋雅婷"/>
+    <hyperlink ref="C60" r:id="rId1" display="邹俊杰"/>
+    <hyperlink ref="C61" r:id="rId1" display="蔡煜翔"/>
+    <hyperlink ref="C62" r:id="rId1" display="梁钦源"/>
+    <hyperlink ref="C63" r:id="rId1" display="何志浩"/>
+    <hyperlink ref="C64" r:id="rId1" display="郑志威"/>
+    <hyperlink ref="C65" r:id="rId1" display="邱肖峰"/>
+    <hyperlink ref="C66" r:id="rId1" display="郭峰"/>
+    <hyperlink ref="C67" r:id="rId1" display="余明鹏"/>
+    <hyperlink ref="C68" r:id="rId1" display="白文婧"/>
+    <hyperlink ref="C69" r:id="rId1" display="梁雪英"/>
+    <hyperlink ref="C70" r:id="rId1" display="柯杰"/>
+    <hyperlink ref="C71" r:id="rId1" display="蔡家超"/>
+    <hyperlink ref="C72" r:id="rId1" display="黄艺滕"/>
+    <hyperlink ref="C73" r:id="rId1" display="林博明"/>
+    <hyperlink ref="C74" r:id="rId1" display="陈光辉"/>
+    <hyperlink ref="C75" r:id="rId1" display="颜怡滨"/>
+    <hyperlink ref="C76" r:id="rId1" display="陈进昂"/>
+    <hyperlink ref="C77" r:id="rId1" display="贺节霞"/>
+    <hyperlink ref="C78" r:id="rId1" display="朱昱橦"/>
+    <hyperlink ref="C79" r:id="rId1" display="陈伟"/>
+    <hyperlink ref="C80" r:id="rId1" display="江宇涵"/>
+    <hyperlink ref="C81" r:id="rId1" display="杨武添"/>
+    <hyperlink ref="C82" r:id="rId1" display="廖鸿儒"/>
+    <hyperlink ref="C83" r:id="rId1" display="张胜黄"/>
+    <hyperlink ref="C84" r:id="rId1" display="江振民"/>
+    <hyperlink ref="C85" r:id="rId1" display="赖鑫伟"/>
+    <hyperlink ref="C86" r:id="rId1" display="吴婷婷"/>
+    <hyperlink ref="C87" r:id="rId1" display="林芳"/>
+    <hyperlink ref="C88" r:id="rId1" display="林心城"/>
+    <hyperlink ref="C89" r:id="rId1" display="饶煊华"/>
+    <hyperlink ref="C90" r:id="rId1" display="池万添"/>
+    <hyperlink ref="C91" r:id="rId1" display="林铮强"/>
+    <hyperlink ref="C92" r:id="rId1" display="陈丰艺"/>
+    <hyperlink ref="C93" r:id="rId1" display="许一坚"/>
+    <hyperlink ref="C7" r:id="rId1" display="韩银泰"/>
+    <hyperlink ref="C8" r:id="rId1" display="严宜达"/>
+    <hyperlink ref="C9" r:id="rId1" display="王晓伟"/>
+    <hyperlink ref="C10" r:id="rId1" display="林恒杰"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -4219,28 +4324,28 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="I1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="J1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="K1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" ht="15.15" spans="1:3">
@@ -5334,7 +5439,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" ht="15.15" spans="1:3">
@@ -6406,8 +6511,8 @@
   <sheetPr/>
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -6429,7 +6534,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" ht="15.15" spans="1:3">
